--- a/Lawnmower on a rope mathematics 20231126.xlsx
+++ b/Lawnmower on a rope mathematics 20231126.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/324c1e38712a118f/Excel JB 2020.delete/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josbe\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{6AE238FA-814C-47FF-B3D7-4A16C7B55E13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{279CF4DA-372A-4025-B13F-50184AC6430C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39163F7F-EA37-4E8A-A064-807AA8906FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{8BDAA58A-CE83-44CC-A52C-A08419968683}"/>
   </bookViews>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>meter</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>If there is no overlap, the total area (A) that is then mowed is approximately A ≈ π ((L-(D/2) +(W/2))^2). The lawn mower mows per unit time W.S. So the mower takes approximately T ≈ A/(W.S) ≈ π ((L-(D/2) +(W/2))^2) / (W.S)) of time units.</t>
-  </si>
-  <si>
-    <t>Example:</t>
   </si>
   <si>
     <t>L=10 meter=1000 cm, D=12 cm, W=37.7 cm, and S = 100 cm/sec.</t>
@@ -169,16 +166,7 @@
     <t>From rounds in steps</t>
   </si>
   <si>
-    <t>That's easy 😉 If the diameter of the pole is D, then the rope becomes D.π shorter each round. Let the width of the lawnmower be W. In order to avoid overlap and unmown grass, the width of the lawnmower must be exactly equal to the diameter of the pole times π. In formula: W= D.π.</t>
-  </si>
-  <si>
     <t>Since you usually already have a lawnmower, you can determine the diameter of the pole by dividing the width of the lawnmower by π. In formula: D=W/π. If the pole is wider, there will be unmown grass; with a narrower pole there will be an overlap.</t>
-  </si>
-  <si>
-    <t>The next question is how much time (T) it takes for the lawnmower to mow the grass if it has a speed of S and the rope is L meters long. This is also easy to determine.</t>
-  </si>
-  <si>
-    <t>If the lawn mower is wider than D.π , it makes (almost) no difference to the time it takes to mow the grass. 😉</t>
   </si>
   <si>
     <t>Lawmmower problem</t>
@@ -200,6 +188,21 @@
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the diameter of the pole is D, then the rope becomes D.π shorter each round. Let the width of the lawnmower be W. In order to avoid overlap and unmown grass, the width of the lawnmower must be exactly equal to the diameter of the pole times π. In formula: W= D.π. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The next question is how much time (T) it takes for the lawnmower to mow the grass if it has a speed of S and the rope is L meters long. This is also easy 🤗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Example: </t>
+  </si>
+  <si>
+    <t>The time for the lawnmower to mow the grass decreases (almost) inversely proportional to its width. 😉</t>
+  </si>
+  <si>
+    <t>Number of rounds (appr.)</t>
   </si>
 </sst>
 </file>
@@ -392,6 +395,14 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -689,12 +700,32 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="0" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{3B1F26BD-3EB7-4313-9FD0-00EA00C03208}">
+  <we:reference id="wa104379640" version="3.4.8.1" store="nl-NL" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104379640" version="3.4.8.1" store="" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12D79774-8CAF-4491-8E9A-06403ED269AC}">
   <dimension ref="A1:P1310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -707,15 +738,15 @@
   <sheetData>
     <row r="1" spans="1:16" ht="19.05" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="12">
         <v>10</v>
@@ -728,7 +759,7 @@
         <v>1000cm</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
@@ -740,10 +771,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" s="12">
         <v>12</v>
@@ -762,25 +793,25 @@
         <v>3</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="12">
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="str">
         <f>(S)&amp;"cm"</f>
@@ -790,7 +821,7 @@
         <v>100</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="J5" s="4">
         <f>MAX(F10:F1009)*100/D5</f>
@@ -805,15 +836,15 @@
         <v>0.2374627216647473</v>
       </c>
       <c r="N5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3">
         <f>D4*PI()</f>
@@ -824,7 +855,7 @@
         <v>37,7cm</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4">
         <f>PI()* ((L*100-(D/2) +(W/2))^2) / (W*S)</f>
@@ -839,33 +870,33 @@
         <v>0.23746857012279129</v>
       </c>
       <c r="N6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="E8" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="13"/>
       <c r="I8" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -938,6 +969,9 @@
         <f>SUM($E$10:E13)</f>
         <v>235.60721747589167</v>
       </c>
+      <c r="I13" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14">
@@ -956,6 +990,10 @@
         <f>SUM($E$10:E14)</f>
         <v>288.58725920421097</v>
       </c>
+      <c r="I14" s="4">
+        <f>D3*100/D/PI()</f>
+        <v>26.525823848649221</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15">
@@ -20373,7 +20411,6 @@
       <c r="F1310" s="1"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="E8:F8"/>
   </mergeCells>
@@ -20389,8 +20426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B852D59-F047-4109-8180-37AC87CC58BD}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -20400,12 +20437,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="57.1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -20413,15 +20450,15 @@
     </row>
     <row r="4" spans="1:1" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:1" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -20437,12 +20474,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -20450,12 +20487,15 @@
     </row>
     <row r="13" spans="1:1" ht="28.55" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="28.55" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+    </row>
+    <row r="15" spans="1:1" ht="28.55" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
